--- a/data/trans_bre/P19C06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.6180197672559711</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6075907645864704</v>
+        <v>0.6075907645864705</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6810443325703482</v>
@@ -660,24 +660,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6482710472197821</v>
+        <v>-0.66109592334707</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3822498203099958</v>
+        <v>0.294241073209885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6004926339478748</v>
+        <v>-0.7101821461715866</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.07825332593678673</v>
+        <v>-0.1158123970054411</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.182132639739456</v>
+        <v>-0.2081833844332079</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-0.4916354279076783</v>
+        <v>-0.4047314622127893</v>
       </c>
     </row>
     <row r="6">
@@ -688,22 +688,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.17196315608281</v>
+        <v>1.181443654437862</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.748716396369077</v>
+        <v>2.7537579385892</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.742402421611533</v>
+        <v>1.808493118105448</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.410240651654407</v>
+        <v>1.37238631679593</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>9.24751776387715</v>
+        <v>10.83021968346173</v>
       </c>
     </row>
     <row r="7">
@@ -727,7 +727,7 @@
         <v>-0.4408766845273558</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.004562984835444935</v>
+        <v>-0.004562984835445108</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1057644929189749</v>
@@ -739,7 +739,7 @@
         <v>-0.3883413199716787</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.004271701486738787</v>
+        <v>-0.004271701486738948</v>
       </c>
     </row>
     <row r="8">
@@ -750,28 +750,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.404467567954221</v>
+        <v>-1.562763987129766</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.573833196393617</v>
+        <v>-1.507812228608902</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.482012577824913</v>
+        <v>-1.43876425326331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.029214543599633</v>
+        <v>-1.128135422916844</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6359540129607155</v>
+        <v>-0.6858885864321528</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6898013911821291</v>
+        <v>-0.6641789852831187</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8437997379620933</v>
+        <v>-0.8254566691656205</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.609497155434007</v>
+        <v>-0.65462535867546</v>
       </c>
     </row>
     <row r="9">
@@ -782,28 +782,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.088716111307445</v>
+        <v>1.096861108792052</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9488475744762616</v>
+        <v>0.894194758164126</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3868027183398366</v>
+        <v>0.3998038826466921</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9530499157405894</v>
+        <v>0.9143553797823876</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.26640031786565</v>
+        <v>1.380622275326644</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.146707888487805</v>
+        <v>0.9753923243997583</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8201437730255218</v>
+        <v>0.8962317475385401</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.733812149345702</v>
+        <v>1.789691003109861</v>
       </c>
     </row>
     <row r="10">
@@ -827,7 +827,7 @@
         <v>-0.9735222626706415</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6251383243332069</v>
+        <v>0.6251383243332068</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6541589120581262</v>
@@ -839,7 +839,7 @@
         <v>-0.5319899983265448</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.9803997120715802</v>
+        <v>0.9803997120715799</v>
       </c>
     </row>
     <row r="11">
@@ -850,28 +850,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5072271228799416</v>
+        <v>-0.6168082250210428</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3006015194200495</v>
+        <v>-0.2498043653370289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.708757418653263</v>
+        <v>-2.836705719366589</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2824282874002364</v>
+        <v>-0.3137909499580857</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4973986352696516</v>
+        <v>-0.5703991868979905</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3485180147502328</v>
+        <v>-0.3363524236592206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.889941012681585</v>
+        <v>-0.9070807301448865</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3835118375220819</v>
+        <v>-0.3953274026597274</v>
       </c>
     </row>
     <row r="12">
@@ -882,28 +882,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.809152850749052</v>
+        <v>2.055310113124978</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.236427498342755</v>
+        <v>2.120995772289424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2644371479696024</v>
+        <v>0.3562955326182808</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.440827161234717</v>
+        <v>1.414452406755802</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.860943276649257</v>
+        <v>7.230511593433885</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>6.983738067706522</v>
+        <v>5.67729586143995</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.626565844393947</v>
+        <v>0.7352667499739634</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>5.325475624240753</v>
+        <v>5.142113324985927</v>
       </c>
     </row>
     <row r="13">
@@ -927,7 +927,7 @@
         <v>1.174401136471655</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2483283837585474</v>
+        <v>0.2483283837585473</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2590957073528444</v>
@@ -939,7 +939,7 @@
         <v>0.9664701022891029</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2958212036714811</v>
+        <v>0.2958212036714808</v>
       </c>
     </row>
     <row r="14">
@@ -950,28 +950,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.388359501156022</v>
+        <v>-1.368482611323956</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8446997269335562</v>
+        <v>-0.973457368255929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2140774607687793</v>
+        <v>-0.0835131924771408</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.578890906294801</v>
+        <v>-0.5863390518190048</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7527874367660574</v>
+        <v>-0.7435138019673011</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5482101928594666</v>
+        <v>-0.5778431928979585</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.196209490560372</v>
+        <v>-0.1356071430790355</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4417139029584691</v>
+        <v>-0.4998940021764662</v>
       </c>
     </row>
     <row r="15">
@@ -982,28 +982,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.637637180302328</v>
+        <v>0.8161805203407004</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.210481994660288</v>
+        <v>1.164819453041747</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.550838367364449</v>
+        <v>2.547454910006595</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9463273477761809</v>
+        <v>1.012671528562721</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.065077269821953</v>
+        <v>1.044009339812649</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.858855073297694</v>
+        <v>2.049445421845125</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.489354640832653</v>
+        <v>3.845764384267421</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.180826683606865</v>
+        <v>2.35399901311505</v>
       </c>
     </row>
     <row r="16">
@@ -1027,7 +1027,7 @@
         <v>0.1488719082256411</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3269573330675047</v>
+        <v>0.3269573330675045</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03022429080149189</v>
@@ -1039,7 +1039,7 @@
         <v>0.1255090793798994</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4255271800235892</v>
+        <v>0.4255271800235887</v>
       </c>
     </row>
     <row r="17">
@@ -1050,28 +1050,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4706827163968827</v>
+        <v>-0.5134694869571934</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2039080958841344</v>
+        <v>-0.155789285464881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4705819248817095</v>
+        <v>-0.5228567643781511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.09631078962392019</v>
+        <v>-0.08507951021242785</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3490944689780424</v>
+        <v>-0.36908475805797</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1578645169328441</v>
+        <v>-0.1416218847279958</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3284540956984169</v>
+        <v>-0.3371076834150449</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1272319180065038</v>
+        <v>-0.08925037572473347</v>
       </c>
     </row>
     <row r="18">
@@ -1082,28 +1082,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6902727331147817</v>
+        <v>0.6111253853238487</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9844204861408061</v>
+        <v>1.021836300704154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.721664634573663</v>
+        <v>0.7516725601918328</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7844702622351629</v>
+        <v>0.7202183748818868</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9274065858514481</v>
+        <v>0.7883410630180512</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.340132238726879</v>
+        <v>1.343920548015306</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8203258481407122</v>
+        <v>0.8750652494812505</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.463886867297474</v>
+        <v>1.433402904635598</v>
       </c>
     </row>
     <row r="19">
